--- a/StructureDefinition-communication-opt-out.xlsx
+++ b/StructureDefinition-communication-opt-out.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="105">
   <si>
     <t>Path</t>
   </si>
@@ -213,9 +213,6 @@
     <t>Applies opt-out for a specific product</t>
   </si>
   <si>
-    <t>Optional Extension Element - found in all resources.</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
@@ -226,7 +223,7 @@
 </t>
   </si>
   <si>
-    <t>Applies opt-out for specific mode of communication (phone | sms | email | mail | chat).</t>
+    <t>Applies opt-out for specific mode of communication (phone | sms | email | mail | chat)</t>
   </si>
   <si>
     <t>conversationType</t>
@@ -517,7 +514,7 @@
     <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="80.640625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="80.05859375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -990,7 +987,7 @@
         <v>62</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1056,7 +1053,7 @@
         <v>42</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" hidden="true">
@@ -1064,7 +1061,7 @@
         <v>50</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C6" t="s" s="2">
         <v>37</v>
@@ -1086,13 +1083,13 @@
         <v>37</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>66</v>
       </c>
-      <c r="K6" t="s" s="2">
-        <v>67</v>
-      </c>
       <c r="L6" t="s" s="2">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1166,7 +1163,7 @@
         <v>50</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C7" t="s" s="2">
         <v>37</v>
@@ -1188,13 +1185,13 @@
         <v>37</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>69</v>
       </c>
-      <c r="K7" t="s" s="2">
-        <v>70</v>
-      </c>
       <c r="L7" t="s" s="2">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1260,7 +1257,7 @@
         <v>42</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" hidden="true">
@@ -1268,7 +1265,7 @@
         <v>50</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C8" t="s" s="2">
         <v>37</v>
@@ -1290,13 +1287,13 @@
         <v>37</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>72</v>
       </c>
-      <c r="K8" t="s" s="2">
-        <v>73</v>
-      </c>
       <c r="L8" t="s" s="2">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1370,7 +1367,7 @@
         <v>50</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C9" t="s" s="2">
         <v>37</v>
@@ -1392,13 +1389,13 @@
         <v>37</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="K9" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="L9" t="s" s="2">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1464,12 +1461,12 @@
         <v>42</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1569,7 +1566,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1669,7 +1666,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1769,7 +1766,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -1871,7 +1868,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -1894,16 +1891,16 @@
         <v>37</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -1953,7 +1950,7 @@
         <v>37</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>44</v>
@@ -1968,12 +1965,12 @@
         <v>37</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -1996,13 +1993,13 @@
         <v>37</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2053,27 +2050,27 @@
         <v>37</v>
       </c>
       <c r="AE15" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI15" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AF15" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="AJ15" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2096,16 +2093,16 @@
         <v>37</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -2113,7 +2110,7 @@
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="R16" t="s" s="2">
         <v>37</v>
@@ -2155,7 +2152,7 @@
         <v>37</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>44</v>
@@ -2170,12 +2167,12 @@
         <v>37</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2198,13 +2195,13 @@
         <v>37</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2243,40 +2240,40 @@
         <v>37</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AB17" s="2"/>
       <c r="AC17" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AE17" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AF17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI17" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AF17" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="AJ17" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C18" t="s" s="2">
         <v>37</v>
@@ -2298,13 +2295,13 @@
         <v>37</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -2331,11 +2328,11 @@
         <v>37</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="X18" s="2"/>
       <c r="Y18" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>37</v>
@@ -2353,22 +2350,22 @@
         <v>37</v>
       </c>
       <c r="AE18" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI18" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AF18" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="AJ18" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" hidden="true">
@@ -2376,7 +2373,7 @@
         <v>50</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C19" t="s" s="2">
         <v>37</v>
@@ -2398,13 +2395,13 @@
         <v>37</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="K19" t="s" s="2">
-        <v>104</v>
-      </c>
       <c r="L19" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -2470,12 +2467,12 @@
         <v>42</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -2498,16 +2495,16 @@
         <v>37</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -2515,7 +2512,7 @@
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="R20" t="s" s="2">
         <v>37</v>
@@ -2557,7 +2554,7 @@
         <v>37</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>44</v>
@@ -2572,12 +2569,12 @@
         <v>37</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -2600,13 +2597,13 @@
         <v>37</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -2657,22 +2654,22 @@
         <v>37</v>
       </c>
       <c r="AE21" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI21" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AF21" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="AJ21" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-communication-opt-out.xlsx
+++ b/StructureDefinition-communication-opt-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-20T17:48:04+00:00</t>
+    <t>2021-09-21T12:28:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-communication-opt-out.xlsx
+++ b/StructureDefinition-communication-opt-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-21T12:28:41+00:00</t>
+    <t>2021-09-28T19:40:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-communication-opt-out.xlsx
+++ b/StructureDefinition-communication-opt-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-28T19:40:31+00:00</t>
+    <t>2021-10-01T15:07:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-communication-opt-out.xlsx
+++ b/StructureDefinition-communication-opt-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-19T14:45:01+00:00</t>
+    <t>2021-12-16T17:36:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-communication-opt-out.xlsx
+++ b/StructureDefinition-communication-opt-out.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="140">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0</t>
+    <t>6.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,16 +57,19 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T17:36:56+00:00</t>
+    <t>2022-01-21T20:46:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Contact</t>
-  </si>
-  <si>
-    <t>No display for ContactDetail</t>
+    <t>Alvearie Team</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t>United States of America</t>
   </si>
   <si>
     <t>Description</t>
@@ -238,9 +241,6 @@
   </si>
   <si>
     <t>*</t>
-  </si>
-  <si>
-    <t>An Extension</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -316,9 +316,6 @@
     <t>Applies opt-out for a specific product</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>communicationMode</t>
   </si>
   <si>
@@ -365,6 +362,9 @@
     <t>Extension.extension.extension</t>
   </si>
   <si>
+    <t>An Extension</t>
+  </si>
+  <si>
     <t>Extension.extension.extension.id</t>
   </si>
   <si>
@@ -388,6 +388,9 @@
   </si>
   <si>
     <t>Extension.url</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
   <si>
     <t>Extension.extension.extension.value[x]</t>
@@ -580,7 +583,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -656,98 +659,92 @@
       <c r="A9" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" t="s" s="2">
+        <v>16</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>19</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="B14" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>24</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -806,203 +803,203 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH2" t="s" s="2">
         <v>76</v>
@@ -1011,7 +1008,7 @@
         <v>77</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3">
@@ -1020,23 +1017,23 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F3" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J3" t="s" s="2">
         <v>80</v>
@@ -1050,65 +1047,65 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE3" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ3" t="s" s="2">
         <v>84</v>
@@ -1124,19 +1121,19 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J4" t="s" s="2">
         <v>87</v>
@@ -1152,38 +1149,38 @@
       </c>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA4" t="s" s="2">
         <v>91</v>
@@ -1192,7 +1189,7 @@
         <v>92</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD4" t="s" s="2">
         <v>93</v>
@@ -1201,13 +1198,13 @@
         <v>94</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>77</v>
@@ -1224,23 +1221,23 @@
         <v>95</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F5" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J5" t="s" s="2">
         <v>96</v>
@@ -1254,68 +1251,68 @@
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE5" t="s" s="2">
         <v>94</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>98</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6">
@@ -1323,101 +1320,101 @@
         <v>85</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F6" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="K6" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="L6" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE6" t="s" s="2">
         <v>94</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7">
@@ -1425,101 +1422,101 @@
         <v>85</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F7" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="K7" t="s" s="2">
-        <v>104</v>
-      </c>
       <c r="L7" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE7" t="s" s="2">
         <v>94</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>98</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8">
@@ -1527,101 +1524,101 @@
         <v>85</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F8" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="K8" t="s" s="2">
-        <v>107</v>
-      </c>
       <c r="L8" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE8" t="s" s="2">
         <v>94</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9">
@@ -1629,126 +1626,126 @@
         <v>85</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="K9" t="s" s="2">
-        <v>110</v>
-      </c>
       <c r="L9" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE9" t="s" s="2">
         <v>94</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>98</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F10" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>80</v>
@@ -1762,65 +1759,65 @@
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE10" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>84</v>
@@ -1828,72 +1825,72 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J11" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA11" t="s" s="2">
         <v>91</v>
@@ -1902,7 +1899,7 @@
         <v>92</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD11" t="s" s="2">
         <v>93</v>
@@ -1911,19 +1908,19 @@
         <v>94</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12">
@@ -1932,23 +1929,23 @@
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J12" t="s" s="2">
         <v>80</v>
@@ -1962,65 +1959,65 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE12" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>84</v>
@@ -2036,19 +2033,19 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J13" t="s" s="2">
         <v>87</v>
@@ -2064,38 +2061,38 @@
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>91</v>
@@ -2104,7 +2101,7 @@
         <v>92</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD13" t="s" s="2">
         <v>93</v>
@@ -2113,13 +2110,13 @@
         <v>94</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>77</v>
@@ -2134,7 +2131,7 @@
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -2144,13 +2141,13 @@
         <v>79</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>116</v>
@@ -2166,50 +2163,50 @@
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE14" t="s" s="2">
         <v>120</v>
@@ -2221,122 +2218,122 @@
         <v>79</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>98</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>98</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -2346,13 +2343,13 @@
         <v>79</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>116</v>
@@ -2368,50 +2365,50 @@
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE16" t="s" s="2">
         <v>120</v>
@@ -2423,211 +2420,211 @@
         <v>79</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>98</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AB17" s="2"/>
       <c r="AC17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>98</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="X18" s="2"/>
       <c r="Y18" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>98</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19">
@@ -2635,101 +2632,101 @@
         <v>85</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE19" t="s" s="2">
         <v>94</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>98</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20">
@@ -2738,7 +2735,7 @@
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -2748,13 +2745,13 @@
         <v>79</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J20" t="s" s="2">
         <v>116</v>
@@ -2770,50 +2767,50 @@
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
         <v>3</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE20" t="s" s="2">
         <v>120</v>
@@ -2825,113 +2822,113 @@
         <v>79</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>98</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>98</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-communication-opt-out.xlsx
+++ b/StructureDefinition-communication-opt-out.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="136">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.0.0</t>
+    <t>6.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-21T20:46:54+00:00</t>
+    <t>2022-05-31T20:10:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -365,13 +365,7 @@
     <t>An Extension</t>
   </si>
   <si>
-    <t>Extension.extension.extension.id</t>
-  </si>
-  <si>
-    <t>Extension.extension.extension.extension</t>
-  </si>
-  <si>
-    <t>Extension.extension.extension.url</t>
+    <t>Extension.extension.url</t>
   </si>
   <si>
     <t xml:space="preserve">uri
@@ -387,69 +381,63 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
+    <t>http://ibm.com/fhir/cdm/StructureDefinition/stated-reason</t>
+  </si>
+  <si>
     <t>Extension.url</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>Extension.extension.extension.value[x]</t>
+    <t>Extension.extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>http://ibm.com/fhir/cdm/ValueSet/eng-opt-out-reason</t>
+  </si>
+  <si>
+    <t>effectivePeriod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/effective-period}
+</t>
+  </si>
+  <si>
+    <t>Effective period for the opt-out</t>
   </si>
   <si>
     <t>base64Binary
 booleancanonicalcodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiurluuidAddressAgeAnnotationAttachmentCodeableConceptCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioReferenceSampledDataSignatureTimingContactDetailContributorDataRequirementExpressionParameterDefinitionRelatedArtifactTriggerDefinitionUsageContextDosageMeta</t>
-  </si>
-  <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>Extension.extension.url</t>
-  </si>
-  <si>
-    <t>http://ibm.com/fhir/cdm/StructureDefinition/stated-reason</t>
-  </si>
-  <si>
-    <t>Extension.extension.value[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
-    <t>valueCodeableConcept</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>http://ibm.com/fhir/cdm/ValueSet/eng-opt-out-reason</t>
-  </si>
-  <si>
-    <t>effectivePeriod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/effective-period}
-</t>
-  </si>
-  <si>
-    <t>Effective period for the opt-out</t>
   </si>
 </sst>
 </file>
@@ -754,7 +742,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ21"/>
+  <dimension ref="A1:AJ17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -763,7 +751,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="38.69921875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="29.1484375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="23.21484375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
@@ -1933,7 +1921,7 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>79</v>
@@ -1948,22 +1936,24 @@
         <v>73</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="M12" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>117</v>
+      </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>73</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>73</v>
+        <v>118</v>
       </c>
       <c r="R12" t="s" s="2">
         <v>73</v>
@@ -2005,10 +1995,10 @@
         <v>73</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>79</v>
@@ -2020,23 +2010,23 @@
         <v>73</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>84</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>73</v>
@@ -2048,17 +2038,15 @@
         <v>73</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>87</v>
+        <v>122</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>88</v>
+        <v>123</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>90</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>73</v>
@@ -2095,47 +2083,47 @@
         <v>73</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>92</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="AB13" s="2"/>
       <c r="AC13" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>93</v>
+        <v>126</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>77</v>
+        <v>128</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>84</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="B14" s="2"/>
+        <v>121</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>129</v>
+      </c>
       <c r="C14" t="s" s="2">
         <v>73</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>79</v>
@@ -2150,17 +2138,15 @@
         <v>73</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>119</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>73</v>
@@ -2185,13 +2171,11 @@
         <v>73</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X14" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="X14" s="2"/>
       <c r="Y14" t="s" s="2">
-        <v>73</v>
+        <v>131</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>73</v>
@@ -2209,10 +2193,10 @@
         <v>73</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
@@ -2221,17 +2205,19 @@
         <v>73</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="B15" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="C15" t="s" s="2">
         <v>73</v>
       </c>
@@ -2252,13 +2238,13 @@
         <v>73</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2309,27 +2295,27 @@
         <v>73</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>127</v>
+        <v>77</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>121</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2352,16 +2338,16 @@
         <v>73</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="K16" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>117</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>119</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -2369,7 +2355,7 @@
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>129</v>
+        <v>3</v>
       </c>
       <c r="R16" t="s" s="2">
         <v>73</v>
@@ -2411,7 +2397,7 @@
         <v>73</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>79</v>
@@ -2426,12 +2412,12 @@
         <v>73</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2442,7 +2428,7 @@
         <v>74</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>73</v>
@@ -2454,13 +2440,13 @@
         <v>73</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>125</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2499,17 +2485,19 @@
         <v>73</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AB17" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="AC17" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>74</v>
@@ -2521,414 +2509,10 @@
         <v>73</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="C18" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G18" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H18" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J18" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="K18" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P18" s="2"/>
-      <c r="Q18" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R18" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S18" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T18" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U18" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V18" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W18" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="X18" s="2"/>
-      <c r="Y18" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="Z18" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="C19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J19" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="K19" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P19" s="2"/>
-      <c r="Q19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J20" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="K20" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="N20" s="2"/>
-      <c r="O20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P20" s="2"/>
-      <c r="Q20" t="s" s="2">
-        <v>3</v>
-      </c>
-      <c r="R20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="G21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J21" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="K21" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P21" s="2"/>
-      <c r="Q21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-communication-opt-out.xlsx
+++ b/StructureDefinition-communication-opt-out.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.1.0</t>
+    <t>6.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-31T20:10:14+00:00</t>
+    <t>2022-06-06T15:56:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-communication-opt-out.xlsx
+++ b/StructureDefinition-communication-opt-out.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.1.1</t>
+    <t>7.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-06T15:56:40+00:00</t>
+    <t>2022-09-01T20:48:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -754,39 +754,39 @@
     <col min="1" max="1" width="29.1484375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="23.21484375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="80.05859375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="21.5703125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="21.57421875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="49.9921875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="18.18359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="24.9765625" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="24.98046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/StructureDefinition-communication-opt-out.xlsx
+++ b/StructureDefinition-communication-opt-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T20:48:10+00:00</t>
+    <t>2022-09-01T21:20:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-communication-opt-out.xlsx
+++ b/StructureDefinition-communication-opt-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T21:20:10+00:00</t>
+    <t>2022-09-01T21:41:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-communication-opt-out.xlsx
+++ b/StructureDefinition-communication-opt-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T21:41:49+00:00</t>
+    <t>2022-09-01T22:10:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-communication-opt-out.xlsx
+++ b/StructureDefinition-communication-opt-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T22:10:22+00:00</t>
+    <t>2022-09-06T15:46:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-communication-opt-out.xlsx
+++ b/StructureDefinition-communication-opt-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T15:46:40+00:00</t>
+    <t>2022-09-06T17:14:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-communication-opt-out.xlsx
+++ b/StructureDefinition-communication-opt-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T17:14:02+00:00</t>
+    <t>2022-09-06T21:02:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-communication-opt-out.xlsx
+++ b/StructureDefinition-communication-opt-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T21:02:26+00:00</t>
+    <t>2022-09-06T21:25:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-communication-opt-out.xlsx
+++ b/StructureDefinition-communication-opt-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T21:25:20+00:00</t>
+    <t>2022-09-07T15:39:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-communication-opt-out.xlsx
+++ b/StructureDefinition-communication-opt-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T15:39:45+00:00</t>
+    <t>2022-09-07T17:21:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-communication-opt-out.xlsx
+++ b/StructureDefinition-communication-opt-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T17:21:01+00:00</t>
+    <t>2022-09-07T17:59:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-communication-opt-out.xlsx
+++ b/StructureDefinition-communication-opt-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T17:59:32+00:00</t>
+    <t>2022-09-07T18:17:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-communication-opt-out.xlsx
+++ b/StructureDefinition-communication-opt-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T18:17:14+00:00</t>
+    <t>2022-09-07T18:58:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-communication-opt-out.xlsx
+++ b/StructureDefinition-communication-opt-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T18:58:38+00:00</t>
+    <t>2022-09-07T20:17:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-communication-opt-out.xlsx
+++ b/StructureDefinition-communication-opt-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T20:17:32+00:00</t>
+    <t>2022-09-07T20:41:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-communication-opt-out.xlsx
+++ b/StructureDefinition-communication-opt-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T20:41:11+00:00</t>
+    <t>2022-09-08T16:11:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-communication-opt-out.xlsx
+++ b/StructureDefinition-communication-opt-out.xlsx
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://ibm.com/fhir/cdm/StructureDefinition/communication-opt-out</t>
+    <t>http://linuxforhealth.org/fhir/cdm/StructureDefinition/communication-opt-out</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>7.0.0</t>
+    <t>8.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T16:11:15+00:00</t>
+    <t>2022-11-10T16:00:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Alvearie Team</t>
+    <t>LinuxForHealth Team</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -247,109 +247,109 @@
 </t>
   </si>
   <si>
+    <t>Extension.id</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Extension.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>Extension.id</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
+    <t>communicationProduct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/communication-product}
 </t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Extension.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
+    <t>Applies opt-out for a specific product</t>
+  </si>
+  <si>
+    <t>communicationMode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/communication-mode}
 </t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
+    <t>Applies opt-out for specific mode of communication (phone | sms | email | mail | chat)</t>
+  </si>
+  <si>
+    <t>conversationType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/conversation-type}
 </t>
   </si>
   <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>communicationProduct</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/communication-product}
+    <t>Applies opt-out for a specific conversation type</t>
+  </si>
+  <si>
+    <t>communicationCareGap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/communication-care-gap}
 </t>
   </si>
   <si>
-    <t>Applies opt-out for a specific product</t>
-  </si>
-  <si>
-    <t>communicationMode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/communication-mode}
-</t>
-  </si>
-  <si>
-    <t>Applies opt-out for specific mode of communication (phone | sms | email | mail | chat)</t>
-  </si>
-  <si>
-    <t>conversationType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/conversation-type}
-</t>
-  </si>
-  <si>
-    <t>Applies opt-out for a specific conversation type</t>
-  </si>
-  <si>
-    <t>communicationCareGap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/communication-care-gap}
-</t>
-  </si>
-  <si>
     <t>Applies opt-out for a specific care gap</t>
   </si>
   <si>
     <t>statedReason</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/stated-reason}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/stated-reason}
 </t>
   </si>
   <si>
@@ -381,7 +381,7 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>http://ibm.com/fhir/cdm/StructureDefinition/stated-reason</t>
+    <t>http://linuxforhealth.org/fhir/cdm/StructureDefinition/stated-reason</t>
   </si>
   <si>
     <t>Extension.url</t>
@@ -423,13 +423,13 @@
     <t>extensible</t>
   </si>
   <si>
-    <t>http://ibm.com/fhir/cdm/ValueSet/eng-opt-out-reason</t>
+    <t>http://linuxforhealth.org/fhir/cdm/ValueSet/eng-opt-out-reason</t>
   </si>
   <si>
     <t>effectivePeriod</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/effective-period}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/effective-period}
 </t>
   </si>
   <si>
@@ -775,7 +775,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="49.9921875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="58.41015625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -993,7 +993,7 @@
         <v>76</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>73</v>
@@ -1001,7 +1001,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -1012,25 +1012,25 @@
         <v>74</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="L3" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -1081,31 +1081,31 @@
         <v>73</v>
       </c>
       <c r="AE3" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ3" t="s" s="2">
         <v>83</v>
-      </c>
-      <c r="AF3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG3" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ3" t="s" s="2">
-        <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
@@ -1124,16 +1124,16 @@
         <v>73</v>
       </c>
       <c r="J4" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="M4" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
@@ -1171,19 +1171,19 @@
         <v>73</v>
       </c>
       <c r="AA4" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AB4" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AB4" t="s" s="2">
+      <c r="AC4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD4" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="AC4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD4" t="s" s="2">
+      <c r="AE4" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AE4" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>74</v>
@@ -1195,15 +1195,15 @@
         <v>73</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B5" t="s" s="2">
         <v>95</v>
@@ -1216,7 +1216,7 @@
         <v>74</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>73</v>
@@ -1285,7 +1285,7 @@
         <v>73</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>74</v>
@@ -1297,7 +1297,7 @@
         <v>73</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>73</v>
@@ -1305,7 +1305,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B6" t="s" s="2">
         <v>98</v>
@@ -1318,7 +1318,7 @@
         <v>74</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>73</v>
@@ -1387,7 +1387,7 @@
         <v>73</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>74</v>
@@ -1399,7 +1399,7 @@
         <v>73</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>73</v>
@@ -1407,7 +1407,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B7" t="s" s="2">
         <v>101</v>
@@ -1420,7 +1420,7 @@
         <v>74</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>73</v>
@@ -1489,7 +1489,7 @@
         <v>73</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>74</v>
@@ -1501,7 +1501,7 @@
         <v>73</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>73</v>
@@ -1509,7 +1509,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B8" t="s" s="2">
         <v>104</v>
@@ -1522,7 +1522,7 @@
         <v>74</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>73</v>
@@ -1591,7 +1591,7 @@
         <v>73</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>74</v>
@@ -1603,7 +1603,7 @@
         <v>73</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>73</v>
@@ -1611,7 +1611,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B9" t="s" s="2">
         <v>107</v>
@@ -1624,7 +1624,7 @@
         <v>74</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>73</v>
@@ -1693,7 +1693,7 @@
         <v>73</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>74</v>
@@ -1705,7 +1705,7 @@
         <v>73</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>73</v>
@@ -1724,25 +1724,25 @@
         <v>74</v>
       </c>
       <c r="F10" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J10" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="G10" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H10" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I10" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J10" t="s" s="2">
+      <c r="K10" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="K10" t="s" s="2">
+      <c r="L10" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="L10" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1793,22 +1793,22 @@
         <v>73</v>
       </c>
       <c r="AE10" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF10" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG10" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ10" t="s" s="2">
         <v>83</v>
-      </c>
-      <c r="AF10" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG10" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH10" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI10" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ10" t="s" s="2">
-        <v>84</v>
       </c>
     </row>
     <row r="11">
@@ -1836,7 +1836,7 @@
         <v>73</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K11" t="s" s="2">
         <v>28</v>
@@ -1881,19 +1881,19 @@
         <v>73</v>
       </c>
       <c r="AA11" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AB11" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AB11" t="s" s="2">
+      <c r="AC11" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD11" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="AC11" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD11" t="s" s="2">
+      <c r="AE11" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>74</v>
@@ -1905,7 +1905,7 @@
         <v>73</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>73</v>
@@ -1921,10 +1921,10 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>73</v>
@@ -1998,10 +1998,10 @@
         <v>119</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>73</v>
@@ -2026,7 +2026,7 @@
         <v>74</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>73</v>
@@ -2099,7 +2099,7 @@
         <v>74</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>73</v>
@@ -2126,7 +2126,7 @@
         <v>74</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>73</v>
@@ -2199,7 +2199,7 @@
         <v>74</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>73</v>
@@ -2213,7 +2213,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>132</v>
@@ -2226,7 +2226,7 @@
         <v>74</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>73</v>
@@ -2295,7 +2295,7 @@
         <v>73</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>74</v>
@@ -2307,7 +2307,7 @@
         <v>73</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>73</v>
@@ -2323,10 +2323,10 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>73</v>
@@ -2400,10 +2400,10 @@
         <v>119</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>73</v>
@@ -2503,7 +2503,7 @@
         <v>74</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>73</v>
